--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3658.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3658.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247985733146289</v>
+        <v>1.35463285446167</v>
       </c>
       <c r="B1">
-        <v>1.58103840832933</v>
+        <v>1.533397436141968</v>
       </c>
       <c r="C1">
-        <v>2.323142506103078</v>
+        <v>1.297408819198608</v>
       </c>
       <c r="D1">
-        <v>7.672945762174418</v>
+        <v>1.354135155677795</v>
       </c>
       <c r="E1">
-        <v>2.902020751075444</v>
+        <v>0.9943990707397461</v>
       </c>
     </row>
   </sheetData>
